--- a/data/georgia_census/samegrelo/abasha/education_graduates.xlsx
+++ b/data/georgia_census/samegrelo/abasha/education_graduates.xlsx
@@ -1850,13 +1850,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5EE6637-3022-47E7-A773-6339165CB6FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AABFA17-4B30-44EA-8D80-0BC4E45516EB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7A80F96-150F-4FCF-B80A-539206700FA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0DD432D-4778-40F7-BFFA-1679C7EF683A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E0C42D-E8C1-4035-BC65-53F77E695989}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFF5F807-CF6B-410B-9614-E0CBB7E3FA3F}"/>
 </file>